--- a/PondBat_EnvirVars.xlsx
+++ b/PondBat_EnvirVars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam.bruce/Desktop/Wildlife_Ecology/Bat_Paper/BIOL345_BATPAPER_ANALYSIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2415D348-1F2B-EB4E-9CCF-0A8AE88D32F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7999A881-17CC-3C48-8103-D70890BC0AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="500" windowWidth="26660" windowHeight="16480" xr2:uid="{91E77FBB-AE66-4264-953E-089B84225B86}"/>
+    <workbookView xWindow="4760" yWindow="540" windowWidth="26660" windowHeight="16400" activeTab="1" xr2:uid="{91E77FBB-AE66-4264-953E-089B84225B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Pond</t>
   </si>
@@ -168,6 +168,39 @@
   </si>
   <si>
     <t>A_Temp = Average nightly temperature (Degrees C)</t>
+  </si>
+  <si>
+    <t>EPTFUS</t>
+  </si>
+  <si>
+    <t>LASCIN</t>
+  </si>
+  <si>
+    <t>LASNOC</t>
+  </si>
+  <si>
+    <t>MYOLUC</t>
+  </si>
+  <si>
+    <t>LASBOR</t>
+  </si>
+  <si>
+    <t>MYOSEP</t>
+  </si>
+  <si>
+    <t>N_Activity</t>
+  </si>
+  <si>
+    <t>N_Richness</t>
+  </si>
+  <si>
+    <t>N_Activity = Complete nightly activity for all species at the pond</t>
+  </si>
+  <si>
+    <t>N_Richness = Number of unique species recorded at least once in one night at a pond</t>
+  </si>
+  <si>
+    <t>*Individual Species Recorded Activity Follow for Each Night/Pond</t>
   </si>
 </sst>
 </file>
@@ -227,14 +260,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,1272 +583,2415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076B1AE8-DC5F-4616-952F-2F1903971EE1}">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
         <v>45057</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>18.93</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>31.9</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>2.89</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>7.94</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>1073.0999999999999</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>5.64</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>0.54</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>1926</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
+      <c r="Q2" s="3">
+        <v>151</v>
+      </c>
+      <c r="R2" s="3">
+        <v>4</v>
+      </c>
+      <c r="S2" s="3">
+        <v>127</v>
+      </c>
+      <c r="T2" s="3">
+        <v>7</v>
+      </c>
+      <c r="U2" s="3">
+        <v>15</v>
+      </c>
+      <c r="V2" s="3">
+        <v>2</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
         <v>45058</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>18.93</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>31.9</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>2.89</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>7.94</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>1073.0999999999999</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>5.64</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>0.54</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>15.6</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>1926</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="Q3" s="3">
+        <v>237</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4</v>
+      </c>
+      <c r="S3" s="3">
+        <v>168</v>
+      </c>
+      <c r="T3" s="3">
+        <v>37</v>
+      </c>
+      <c r="U3" s="3">
+        <v>31</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
         <v>45059</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>18.93</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>31.9</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>2.89</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>7.94</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>1073.0999999999999</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>5.64</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>0.54</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>13.3</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>1926</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="Q4" s="3">
+        <v>317</v>
+      </c>
+      <c r="R4" s="3">
+        <v>3</v>
+      </c>
+      <c r="S4" s="3">
+        <v>221</v>
+      </c>
+      <c r="T4" s="3">
+        <v>47</v>
+      </c>
+      <c r="U4" s="3">
+        <v>49</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>45060</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>18.93</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>31.9</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>2.89</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>7.94</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>1073.0999999999999</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>5.64</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>0.54</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>6.1</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>1926</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="Q5" s="3">
+        <v>27</v>
+      </c>
+      <c r="R5" s="3">
+        <v>2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>3</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>24</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
         <v>45057</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>18.93</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>31.9</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>2.89</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>7.94</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>1073.0999999999999</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>5.64</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>0.54</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>1614</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
+      <c r="Q6" s="3">
+        <v>84</v>
+      </c>
+      <c r="R6" s="3">
+        <v>3</v>
+      </c>
+      <c r="S6" s="3">
+        <v>56</v>
+      </c>
+      <c r="T6" s="3">
+        <v>17</v>
+      </c>
+      <c r="U6" s="3">
+        <v>11</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
         <v>45058</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>18.93</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>31.9</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>2.89</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>7.94</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>1073.0999999999999</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>5.64</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>0.54</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>15.6</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>1614</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="Q7" s="3">
+        <v>91</v>
+      </c>
+      <c r="R7" s="3">
+        <v>4</v>
+      </c>
+      <c r="S7" s="3">
+        <v>51</v>
+      </c>
+      <c r="T7" s="3">
+        <v>25</v>
+      </c>
+      <c r="U7" s="3">
+        <v>14</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
         <v>45059</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>18.93</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>31.9</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>2.89</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>7.94</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>1073.0999999999999</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>5.64</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>0.54</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>13.3</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>1614</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
+      <c r="Q8" s="3">
+        <v>99</v>
+      </c>
+      <c r="R8" s="3">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3">
+        <v>52</v>
+      </c>
+      <c r="T8" s="3">
+        <v>34</v>
+      </c>
+      <c r="U8" s="3">
+        <v>13</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>45060</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>18.93</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>31.9</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>2.89</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>7.94</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>1073.0999999999999</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>5.64</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0.54</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>6.1</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>1614</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
+      <c r="Q9" s="3">
+        <v>14</v>
+      </c>
+      <c r="R9" s="3">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>12</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
     </row>
     <row r="10" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
         <v>45057</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>18.93</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>31.9</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>2.89</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>7.94</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>1073.0999999999999</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>5.64</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>0.54</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>11479</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
+      <c r="Q10" s="3">
+        <v>143</v>
+      </c>
+      <c r="R10" s="3">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
+        <v>45</v>
+      </c>
+      <c r="T10" s="3">
+        <v>65</v>
+      </c>
+      <c r="U10" s="3">
+        <v>13</v>
+      </c>
+      <c r="V10" s="3">
+        <v>15</v>
+      </c>
+      <c r="W10" s="3">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
     </row>
     <row r="11" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
         <v>45058</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>18.93</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>31.9</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>2.89</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>7.94</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>1073.0999999999999</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>5.64</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>0.54</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>15.6</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>11479</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
+      <c r="Q11" s="3">
+        <v>183</v>
+      </c>
+      <c r="R11" s="3">
+        <v>5</v>
+      </c>
+      <c r="S11" s="3">
+        <v>47</v>
+      </c>
+      <c r="T11" s="3">
+        <v>83</v>
+      </c>
+      <c r="U11" s="3">
+        <v>46</v>
+      </c>
+      <c r="V11" s="3">
+        <v>5</v>
+      </c>
+      <c r="W11" s="3">
+        <v>2</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5">
         <v>45059</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>18.93</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>31.9</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>2.89</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>7.94</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>1073.0999999999999</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>5.64</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>0.54</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>13.3</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>11479</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
+      <c r="Q12" s="3">
+        <v>570</v>
+      </c>
+      <c r="R12" s="3">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3">
+        <v>43</v>
+      </c>
+      <c r="T12" s="3">
+        <v>39</v>
+      </c>
+      <c r="U12" s="3">
+        <v>407</v>
+      </c>
+      <c r="V12" s="3">
+        <v>80</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>45060</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>18.93</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>31.9</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>2.89</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <v>7.94</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>1073.0999999999999</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>5.64</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>0.54</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="3">
         <v>6.1</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="3">
         <v>11479</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
+      <c r="Q13" s="3">
+        <v>256</v>
+      </c>
+      <c r="R13" s="3">
+        <v>4</v>
+      </c>
+      <c r="S13" s="3">
+        <v>14</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3">
+        <v>224</v>
+      </c>
+      <c r="V13" s="3">
+        <v>17</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
         <v>45057</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="O14">
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="3">
         <v>2765</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
+      <c r="Q14" s="3">
+        <v>6</v>
+      </c>
+      <c r="R14" s="3">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>1</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5">
         <v>45058</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="O15">
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>15.6</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="3">
         <v>2765</v>
       </c>
-      <c r="T15" s="2"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="Q15" s="3">
+        <v>90</v>
+      </c>
+      <c r="R15" s="3">
+        <v>3</v>
+      </c>
+      <c r="S15" s="3">
+        <v>17</v>
+      </c>
+      <c r="T15" s="3">
+        <v>17</v>
+      </c>
+      <c r="U15" s="3">
+        <v>56</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5">
         <v>45059</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="O16">
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
         <v>13.3</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="3">
         <v>2765</v>
       </c>
-      <c r="T16" s="2"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
+      <c r="Q16" s="3">
+        <v>40</v>
+      </c>
+      <c r="R16" s="3">
+        <v>4</v>
+      </c>
+      <c r="S16" s="3">
+        <v>5</v>
+      </c>
+      <c r="T16" s="3">
+        <v>6</v>
+      </c>
+      <c r="U16" s="3">
+        <v>27</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>2</v>
+      </c>
+      <c r="X16" s="3">
+        <v>0</v>
+      </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>45060</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="O17">
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>6.1</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="3">
         <v>2765</v>
       </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="Q17" s="3">
+        <v>6</v>
+      </c>
+      <c r="R17" s="3">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3">
+        <v>4</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
     </row>
     <row r="18" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
         <v>45057</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="O18">
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="3">
         <v>5450</v>
       </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
+      <c r="Q18" s="3">
+        <v>79</v>
+      </c>
+      <c r="R18" s="3">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
+        <v>28</v>
+      </c>
+      <c r="T18" s="3">
+        <v>22</v>
+      </c>
+      <c r="U18" s="3">
+        <v>25</v>
+      </c>
+      <c r="V18" s="3">
+        <v>2</v>
+      </c>
+      <c r="W18" s="3">
+        <v>2</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
     </row>
     <row r="19" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5">
         <v>45058</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="O19">
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
         <v>15.6</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="3">
         <v>5450</v>
       </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+      <c r="Q19" s="3">
+        <v>117</v>
+      </c>
+      <c r="R19" s="3">
+        <v>4</v>
+      </c>
+      <c r="S19" s="3">
+        <v>37</v>
+      </c>
+      <c r="T19" s="3">
+        <v>30</v>
+      </c>
+      <c r="U19" s="3">
+        <v>43</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>7</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5">
         <v>45059</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="O20">
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>13.3</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <v>5450</v>
       </c>
+      <c r="Q20" s="3">
+        <v>73</v>
+      </c>
+      <c r="R20" s="3">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
+        <v>24</v>
+      </c>
+      <c r="T20" s="3">
+        <v>15</v>
+      </c>
+      <c r="U20" s="3">
+        <v>29</v>
+      </c>
+      <c r="V20" s="3">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>4</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>45060</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="O21">
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>6.1</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="3">
         <v>5450</v>
       </c>
+      <c r="Q21" s="3">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
+        <v>7</v>
+      </c>
+      <c r="T21" s="3">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
+        <v>1</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5">
         <v>45057</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="O22">
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="3">
         <v>2496</v>
       </c>
+      <c r="Q22" s="3">
+        <v>402</v>
+      </c>
+      <c r="R22" s="3">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
+        <v>272</v>
+      </c>
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>23</v>
+      </c>
+      <c r="V22" s="3">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5">
         <v>45058</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="O23">
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>15.6</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="3">
         <v>2496</v>
       </c>
+      <c r="Q23" s="3">
+        <v>308</v>
+      </c>
+      <c r="R23" s="3">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
+        <v>201</v>
+      </c>
+      <c r="T23" s="3">
+        <v>74</v>
+      </c>
+      <c r="U23" s="3">
+        <v>30</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1</v>
+      </c>
+      <c r="W23" s="3">
+        <v>2</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5">
         <v>45059</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="O24">
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>13.3</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="3">
         <v>2496</v>
       </c>
+      <c r="Q24" s="3">
+        <v>307</v>
+      </c>
+      <c r="R24" s="3">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
+        <v>213</v>
+      </c>
+      <c r="T24" s="3">
+        <v>55</v>
+      </c>
+      <c r="U24" s="3">
+        <v>35</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1</v>
+      </c>
+      <c r="W24" s="3">
+        <v>3</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>4</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="5">
         <v>45060</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="O25">
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
         <v>6.1</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="3">
         <v>2496</v>
       </c>
+      <c r="Q25" s="3">
+        <v>48</v>
+      </c>
+      <c r="R25" s="3">
+        <v>4</v>
+      </c>
+      <c r="S25" s="3">
+        <v>38</v>
+      </c>
+      <c r="T25" s="3">
+        <v>5</v>
+      </c>
+      <c r="U25" s="3">
+        <v>4</v>
+      </c>
+      <c r="V25" s="3">
+        <v>1</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5">
         <v>45057</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="O26">
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="3">
         <v>1429</v>
       </c>
+      <c r="Q26" s="3">
+        <v>267</v>
+      </c>
+      <c r="R26" s="3">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3">
+        <v>103</v>
+      </c>
+      <c r="T26" s="3">
+        <v>155</v>
+      </c>
+      <c r="U26" s="3">
+        <v>11</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" s="4">
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5">
         <v>45058</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="O27">
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>15.6</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="3">
         <v>1429</v>
       </c>
+      <c r="Q27" s="3">
+        <v>307</v>
+      </c>
+      <c r="R27" s="3">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
+        <v>140</v>
+      </c>
+      <c r="T27" s="3">
+        <v>116</v>
+      </c>
+      <c r="U27" s="3">
+        <v>50</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>1</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4">
+      <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
         <v>45059</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="O28">
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
         <v>13.3</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="3">
         <v>1429</v>
       </c>
+      <c r="Q28" s="3">
+        <v>441</v>
+      </c>
+      <c r="R28" s="3">
+        <v>5</v>
+      </c>
+      <c r="S28" s="3">
+        <v>327</v>
+      </c>
+      <c r="T28" s="3">
+        <v>68</v>
+      </c>
+      <c r="U28" s="3">
+        <v>39</v>
+      </c>
+      <c r="V28" s="3">
+        <v>3</v>
+      </c>
+      <c r="W28" s="3">
+        <v>4</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="3">
         <v>4</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="5">
         <v>45060</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="O29">
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>6.1</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="3">
         <v>1429</v>
       </c>
+      <c r="Q29" s="3">
+        <v>124</v>
+      </c>
+      <c r="R29" s="3">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>93</v>
+      </c>
+      <c r="T29" s="3">
+        <v>20</v>
+      </c>
+      <c r="U29" s="3">
+        <v>7</v>
+      </c>
+      <c r="V29" s="3">
+        <v>2</v>
+      </c>
+      <c r="W29" s="3">
+        <v>2</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1824,10 +3001,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBDF8F2-673F-4B9B-9276-FF491FCBE83A}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1905,6 +3082,21 @@
         <v>33</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
